--- a/state laws.xlsx
+++ b/state laws.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koegs\Desktop\DU Bootcamp\Homework\project1-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD27199-A623-4FC0-B5F4-DE2A7F153B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1744291-C6B9-4541-87B1-59D0B815D0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="715" activeTab="1" xr2:uid="{21450E45-818E-4691-B04E-0F6366D1F53A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="715" activeTab="2" xr2:uid="{21450E45-818E-4691-B04E-0F6366D1F53A}"/>
   </bookViews>
   <sheets>
     <sheet name="LegislationSummary" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Pew Smartphones" sheetId="4" r:id="rId3"/>
     <sheet name="Enacted Cellphone Legislation" sheetId="1" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -527,7 +524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -681,20 +678,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -705,16 +706,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4393,13 +4390,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>968375</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4425,181 +4422,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="All"/>
-      <sheetName val="YouTube"/>
-      <sheetName val="Insta"/>
-      <sheetName val="Twitter"/>
-      <sheetName val="Kik"/>
-      <sheetName val="Skype"/>
-      <sheetName val="G Messages"/>
-      <sheetName val="WeChat"/>
-      <sheetName val="LINE"/>
-      <sheetName val="Telegram"/>
-      <sheetName val="G Talk"/>
-      <sheetName val="G Hangouts"/>
-      <sheetName val="WhatsApp"/>
-      <sheetName val="groupme"/>
-      <sheetName val="FB Mess"/>
-      <sheetName val="SnapChat"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>parent company</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>US users 9/19* (millions, MAUs)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>40564</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Tencent Holdings Limited</v>
-          </cell>
-          <cell r="F2">
-            <v>1.48</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>40969</v>
-          </cell>
-          <cell r="F3">
-            <v>3.15</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>41500</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Telegram FZ LLC</v>
-          </cell>
-          <cell r="F4">
-            <v>3.47</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>37862</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Skype Technologies</v>
-          </cell>
-          <cell r="F5">
-            <v>5.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>40470</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Kik Interactive Inc.</v>
-          </cell>
-          <cell r="F6">
-            <v>7.72</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>40299</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Skype Technologies S.A.</v>
-          </cell>
-          <cell r="F7">
-            <v>10.75</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>41409</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Google LLC</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>dead - I think</v>
-          </cell>
-          <cell r="F8">
-            <v>14.19</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>43101</v>
-          </cell>
-          <cell r="F9">
-            <v>17.46</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>39814</v>
-          </cell>
-          <cell r="F10">
-            <v>25.58</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>40787</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>Snap Inc.</v>
-          </cell>
-          <cell r="F11">
-            <v>45.98</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>38913</v>
-          </cell>
-          <cell r="F12">
-            <v>69.64</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>40764</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>Facebook, Inc.</v>
-          </cell>
-          <cell r="F13">
-            <v>106.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4913,13 +4735,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4928,7 +4750,7 @@
         <f>'Enacted Cellphone Legislation'!A8</f>
         <v>California</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="16">
         <f>'Enacted Cellphone Legislation'!C8</f>
         <v>39630</v>
       </c>
@@ -4943,7 +4765,7 @@
         <f>'Enacted Cellphone Legislation'!A10</f>
         <v>Colorado</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="16">
         <f>'Enacted Cellphone Legislation'!C10</f>
         <v>40148</v>
       </c>
@@ -4957,7 +4779,7 @@
         <f>'Enacted Cellphone Legislation'!A35</f>
         <v>New Hampshire</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="16">
         <f>'Enacted Cellphone Legislation'!C35</f>
         <v>42186</v>
       </c>
@@ -4977,7 +4799,7 @@
         <f>'Enacted Cellphone Legislation'!A38</f>
         <v>New York</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <f>'Enacted Cellphone Legislation'!C38</f>
         <v>37196</v>
       </c>
@@ -4991,7 +4813,7 @@
         <f>'Enacted Cellphone Legislation'!A51</f>
         <v>Texas</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="16">
         <f>'Enacted Cellphone Legislation'!C51</f>
         <v>42979</v>
       </c>
@@ -5013,7 +4835,7 @@
         <f>'Enacted Cellphone Legislation'!A63</f>
         <v>Wyoming</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="16">
         <f>'Enacted Cellphone Legislation'!C63</f>
         <v>40360</v>
       </c>
@@ -5032,7 +4854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDC7195-9C9A-446E-97D3-C2DC2CE049A0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5053,7 +4875,7 @@
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="20">
         <v>0.20200000000000001</v>
       </c>
       <c r="C2">
@@ -5064,7 +4886,7 @@
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="20">
         <v>0.29799999999999999</v>
       </c>
       <c r="C3">
@@ -5075,7 +4897,7 @@
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="20">
         <v>0.38800000000000001</v>
       </c>
       <c r="C4">
@@ -5086,7 +4908,7 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="20">
         <v>0.45700000000000002</v>
       </c>
       <c r="C5">
@@ -5097,7 +4919,7 @@
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="20">
         <v>0.53600000000000003</v>
       </c>
       <c r="C6">
@@ -5108,7 +4930,7 @@
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="20">
         <v>0.59399999999999997</v>
       </c>
       <c r="C7">
@@ -5119,7 +4941,7 @@
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="20">
         <v>0.63900000000000001</v>
       </c>
       <c r="C8">
@@ -5130,7 +4952,7 @@
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="20">
         <v>0.67300000000000004</v>
       </c>
       <c r="C9">
@@ -5141,7 +4963,7 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="20">
         <v>0.69599999999999995</v>
       </c>
       <c r="C10">
@@ -5152,7 +4974,7 @@
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="20">
         <v>0.71399999999999997</v>
       </c>
       <c r="C11">
@@ -5163,7 +4985,7 @@
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="20">
         <v>0.72199999999999998</v>
       </c>
       <c r="C12">
@@ -5174,7 +4996,7 @@
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="20">
         <v>0.72699999999999998</v>
       </c>
       <c r="C13">
@@ -5212,7 +5034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A781782B-F437-4AFD-B125-3DE287E08421}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -5230,590 +5052,590 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24">
+      <c r="A2" s="16">
         <v>37556</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="19">
         <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24">
+      <c r="A3" s="16">
         <v>38321</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="19">
         <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24">
+      <c r="A4" s="16">
         <v>38392</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="19">
         <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24">
+      <c r="A5" s="16">
         <v>38717</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>0.67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24">
+      <c r="A6" s="16">
         <v>38804</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>0.66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24">
+      <c r="A7" s="16">
         <v>38813</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="19">
         <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24">
+      <c r="A8" s="16">
         <v>39330</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="19">
         <v>0.76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>39418</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="19">
         <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24">
+      <c r="A10" s="16">
         <v>39460</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="19">
         <v>0.77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24">
+      <c r="A11" s="16">
         <v>39579</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="19">
         <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24">
+      <c r="A12" s="16">
         <v>39670</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="19">
         <v>0.82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24">
+      <c r="A13" s="16">
         <v>39802</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="19">
         <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24">
+      <c r="A14" s="16">
         <v>39840</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="24">
+      <c r="A15" s="16">
         <v>39922</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="24">
+      <c r="A16" s="16">
         <v>40070</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="19">
         <v>0.84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24">
+      <c r="A17" s="16">
         <v>40174</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="19">
         <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24">
+      <c r="A18" s="16">
         <v>40197</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="19">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24">
+      <c r="A19" s="16">
         <v>40328</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="19">
         <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24">
+      <c r="A20" s="16">
         <v>40434</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="19">
         <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24">
+      <c r="A21" s="16">
         <v>40483</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="19">
         <v>0.84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24">
+      <c r="A22" s="16">
         <v>40506</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="19">
         <v>0.82</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="24">
+      <c r="A23" s="16">
         <v>40510</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="19">
         <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="24">
+      <c r="A24" s="16">
         <v>40533</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="19">
         <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="24">
+      <c r="A25" s="16">
         <v>40622</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="19">
         <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24">
+      <c r="A26" s="16">
         <v>40685</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="19">
         <v>0.83</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="19">
         <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="24">
+      <c r="A27" s="16">
         <v>40781</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="19">
         <v>0.84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="24">
+      <c r="A28" s="16">
         <v>40898</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="19">
         <v>0.87</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="24">
+      <c r="A29" s="16">
         <v>40916</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="19">
         <v>0.88</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="24">
+      <c r="A30" s="16">
         <v>40923</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="19">
         <v>0.87</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="19">
         <v>0.39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="24">
+      <c r="A31" s="16">
         <v>40958</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="19">
         <v>0.88</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="19">
         <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24">
+      <c r="A32" s="16">
         <v>41002</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="19">
         <v>0.88</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="19">
         <v>0.46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="24">
+      <c r="A33" s="16">
         <v>41126</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="19">
         <v>0.87</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="19">
         <v>0.44</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="24">
+      <c r="A34" s="16">
         <v>41128</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="19">
         <v>0.89</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="24">
+      <c r="A35" s="16">
         <v>41158</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="19">
         <v>0.85</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="19">
         <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="24">
+      <c r="A36" s="16">
         <v>41175</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="19">
         <v>0.88</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="19">
         <v>0.43</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="24">
+      <c r="A37" s="16">
         <v>41182</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="19">
         <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="24">
+      <c r="A38" s="16">
         <v>41196</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="19">
         <v>0.88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="24">
+      <c r="A39" s="16">
         <v>41217</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="19">
         <v>0.89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="24">
+      <c r="A40" s="16">
         <v>41223</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="19">
         <v>0.84</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="19">
         <v>0.46</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24">
+      <c r="A41" s="16">
         <v>41252</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="19">
         <v>0.87</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="19">
         <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="24">
+      <c r="A42" s="16">
         <v>41259</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="19">
         <v>0.88</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24">
+      <c r="A43" s="16">
         <v>41280</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="19">
         <v>0.89</v>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="19">
         <v>0.51</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="24">
+      <c r="A44" s="16">
         <v>41413</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="19">
         <v>0.91</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="19">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24">
+      <c r="A45" s="16">
         <v>41469</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="19">
         <v>0.9</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="19">
         <v>0.53</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="24">
+      <c r="A46" s="16">
         <v>41483</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="19">
         <v>0.91</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="19">
         <v>0.53</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="24">
+      <c r="A47" s="16">
         <v>41533</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="19">
         <v>0.89</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="19">
         <v>0.54</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="24">
+      <c r="A48" s="16">
         <v>41547</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="19">
         <v>0.91</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="19">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="24">
+      <c r="A49" s="16">
         <v>41553</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="19">
         <v>0.92</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="19">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="24">
+      <c r="A50" s="16">
         <v>41644</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="19">
         <v>0.92</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="19">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="24">
+      <c r="A51" s="16">
         <v>41651</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="19">
         <v>0.9</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="19">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="24">
+      <c r="A52" s="16">
         <v>41665</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="19">
         <v>0.91</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="19">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="24">
+      <c r="A53" s="16">
         <v>41688</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="19">
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="24">
+      <c r="A54" s="16">
         <v>41756</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="19">
         <v>0.92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="24">
+      <c r="A55" s="16">
         <v>41903</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="19">
         <v>0.91</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="24">
+      <c r="A56" s="16">
         <v>41994</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="19">
         <v>0.89</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="19">
         <v>0.59</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="24">
+      <c r="A57" s="16">
         <v>42106</v>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="19">
         <v>0.92</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="19">
         <v>0.67</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="24">
+      <c r="A58" s="16">
         <v>42197</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="19">
         <v>0.92</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="19">
         <v>0.68</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="24">
+      <c r="A59" s="16">
         <v>42323</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="19">
         <v>0.91</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="19">
         <v>0.69</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="24">
+      <c r="A60" s="16">
         <v>42464</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="19">
         <v>0.92</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="19">
         <v>0.72</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24">
+      <c r="A61" s="16">
         <v>42493</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="19">
         <v>0.92</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="19">
         <v>0.7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="24">
+      <c r="A62" s="16">
         <v>42680</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="19">
         <v>0.95</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="19">
         <v>0.77</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="24">
+      <c r="A63" s="16">
         <v>43110</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="19">
         <v>0.95</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="19">
         <v>0.77</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="24">
+      <c r="A64" s="16">
         <v>43503</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="19">
         <v>0.96</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="19">
         <v>0.81</v>
       </c>
     </row>
@@ -5924,96 +5746,96 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="31">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="31.5" thickBot="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="46.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="47" thickBot="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="136" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <v>39630</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -6021,16 +5843,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="31.5" thickBot="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="78" thickBot="1">
       <c r="A10" s="7" t="s">
@@ -6039,7 +5861,7 @@
       <c r="B10" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>40148</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -6385,38 +6207,38 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="31.5" thickBot="1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1">
       <c r="A28" s="7" t="s">
@@ -6577,7 +6399,7 @@
       <c r="B35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="17">
         <v>42186</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6645,7 +6467,7 @@
       <c r="B38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>37196</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6707,36 +6529,36 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="31">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" ht="31.5" thickBot="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="62.5" thickBot="1">
       <c r="A43" s="7" t="s">
@@ -6917,7 +6739,7 @@
       <c r="B51" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="15">
         <v>42979</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -6937,38 +6759,38 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.5">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="20"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8" ht="16" thickBot="1">
       <c r="A54" s="7" t="s">
@@ -7007,38 +6829,38 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="31">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="25" t="s">
         <v>130</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="31.5" thickBot="1">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="22"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="20"/>
+      <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8" ht="31.5" thickBot="1">
       <c r="A58" s="7" t="s">
@@ -7083,48 +6905,48 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" ht="15.5">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="15.5">
-      <c r="A61" s="16"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="18"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
     </row>
     <row r="62" spans="1:8" ht="16" thickBot="1">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:8" ht="186.5" thickBot="1">
       <c r="A63" s="7" t="s">
@@ -7133,7 +6955,7 @@
       <c r="B63" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="17">
         <v>40360</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -7153,40 +6975,40 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="46.5">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H64" s="17" t="s">
+      <c r="H64" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="31">
-      <c r="A65" s="16"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="18"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="18"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H65" s="18"/>
+      <c r="H65" s="28"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11"/>
@@ -7200,36 +7022,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="F64:F65"/>
@@ -7244,6 +7036,36 @@
     <mergeCell ref="F60:F62"/>
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="H60:H62"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
